--- a/Sunken Temple/Guardian_Game_Item_Combos.xlsx
+++ b/Sunken Temple/Guardian_Game_Item_Combos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -750,24 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -786,6 +768,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,61 +816,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="AK28" sqref="AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,47 +1224,47 @@
         <v>6</v>
       </c>
       <c r="K3" s="37"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
       <c r="O3" s="45"/>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="87"/>
       <c r="S3" s="45"/>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="87"/>
       <c r="W3" s="45"/>
-      <c r="X3" s="50" t="s">
+      <c r="X3" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="52"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="87"/>
       <c r="AA3" s="45"/>
-      <c r="AB3" s="50" t="s">
+      <c r="AB3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="52"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
       <c r="AE3" s="45"/>
-      <c r="AF3" s="50" t="s">
+      <c r="AF3" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="52"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
       <c r="AI3" s="45"/>
-      <c r="AJ3" s="50" t="s">
+      <c r="AJ3" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="87"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1276,52 +1276,52 @@
       <c r="E4" s="20">
         <v>5</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="89"/>
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
       <c r="O4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="54"/>
       <c r="S4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="61"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="55"/>
       <c r="W4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="63"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="57"/>
       <c r="AA4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="60"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="54"/>
       <c r="AE4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="61"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="55"/>
       <c r="AI4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="64"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="58"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1333,13 +1333,13 @@
       <c r="E5" s="20">
         <v>4</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="75"/>
+      <c r="I5" s="81"/>
       <c r="K5" t="s">
         <v>32</v>
       </c>
@@ -1393,11 +1393,11 @@
       <c r="E6" s="20">
         <v>3</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
       <c r="L6" s="22"/>
       <c r="M6" s="26"/>
       <c r="N6" s="35"/>
@@ -1448,13 +1448,13 @@
       <c r="E7" s="20">
         <v>4</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="75"/>
+      <c r="I7" s="81"/>
       <c r="L7" s="22"/>
       <c r="M7" s="26"/>
       <c r="N7" s="35"/>
@@ -1505,11 +1505,11 @@
       <c r="E8" s="20">
         <v>5</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="L8" s="22"/>
       <c r="M8" s="26"/>
       <c r="N8" s="35"/>
@@ -1560,13 +1560,13 @@
       <c r="E9" s="20">
         <v>4</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="68" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="75"/>
+      <c r="I9" s="81"/>
       <c r="L9" s="22"/>
       <c r="M9" s="26"/>
       <c r="N9" s="35"/>
@@ -1617,11 +1617,11 @@
       <c r="E10" s="20">
         <v>3</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
       <c r="L10" s="22"/>
       <c r="M10" s="26"/>
       <c r="N10" s="35"/>
@@ -1666,13 +1666,13 @@
       <c r="E11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="81"/>
       <c r="L11" s="22"/>
       <c r="M11" s="26"/>
       <c r="N11" s="35"/>
@@ -1717,11 +1717,11 @@
       <c r="E12" s="20">
         <v>3</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
       <c r="L12" s="22"/>
       <c r="M12" s="26"/>
       <c r="N12" s="35"/>
@@ -1766,13 +1766,13 @@
       <c r="E13" s="20">
         <v>4</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="75"/>
+      <c r="I13" s="81"/>
       <c r="L13" s="22"/>
       <c r="M13" s="26"/>
       <c r="N13" s="35"/>
@@ -1817,11 +1817,11 @@
       <c r="E14" s="20">
         <v>2</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="77"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
       <c r="L14" s="22"/>
       <c r="M14" s="26"/>
       <c r="N14" s="35"/>
@@ -1866,39 +1866,39 @@
       <c r="E15" s="20">
         <v>1</v>
       </c>
-      <c r="L15" s="65"/>
+      <c r="L15" s="59"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="66"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="36"/>
-      <c r="P15" s="65"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="66"/>
+      <c r="R15" s="60"/>
       <c r="S15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="67"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="69"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="63"/>
       <c r="W15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="71"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="65"/>
       <c r="AA15" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="69"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="63"/>
       <c r="AE15" s="36"/>
-      <c r="AF15" s="65"/>
+      <c r="AF15" s="59"/>
       <c r="AG15" s="36"/>
-      <c r="AH15" s="66"/>
+      <c r="AH15" s="60"/>
       <c r="AI15" s="36"/>
-      <c r="AJ15" s="65"/>
+      <c r="AJ15" s="59"/>
       <c r="AK15" s="36"/>
-      <c r="AL15" s="66"/>
+      <c r="AL15" s="60"/>
     </row>
     <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1910,47 +1910,47 @@
       <c r="E16" s="20">
         <v>2</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="L16" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="92"/>
       <c r="O16" s="46"/>
-      <c r="P16" s="53" t="s">
+      <c r="P16" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
       <c r="S16" s="46"/>
-      <c r="T16" s="53" t="s">
+      <c r="T16" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="46"/>
-      <c r="X16" s="53" t="s">
+      <c r="X16" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="55"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="92"/>
       <c r="AA16" s="46"/>
-      <c r="AB16" s="53" t="s">
+      <c r="AB16" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="55"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="92"/>
       <c r="AE16" s="46"/>
-      <c r="AF16" s="53" t="s">
+      <c r="AF16" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="55"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="92"/>
       <c r="AI16" s="46"/>
-      <c r="AJ16" s="53" t="s">
+      <c r="AJ16" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="55"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="92"/>
     </row>
     <row r="17" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2036,7 +2036,7 @@
         <f>COUNTIF($E$3:$E$63, 6)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="95">
         <f>SUM(H18:H19)*100/$H$28</f>
         <v>5.4545454545454541</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="M18" s="16">
         <v>0</v>
       </c>
-      <c r="N18" s="87">
+      <c r="N18" s="93">
         <f>SUM(M18:M19)*100/$H$28</f>
         <v>0</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="Q18" s="16">
         <v>0</v>
       </c>
-      <c r="R18" s="87">
+      <c r="R18" s="93">
         <f>SUM(Q18:Q19)*100/$Q$28</f>
         <v>0</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="U18" s="16">
         <v>0</v>
       </c>
-      <c r="V18" s="85">
+      <c r="V18" s="95">
         <f>SUM(U18:U19)*100/$U$28</f>
         <v>0</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="Y18" s="16">
         <v>0</v>
       </c>
-      <c r="Z18" s="85">
+      <c r="Z18" s="95">
         <f>SUM(Y18:Y19)*100/$Y$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2086,7 +2086,7 @@
       <c r="AC18" s="16">
         <v>0</v>
       </c>
-      <c r="AD18" s="85">
+      <c r="AD18" s="95">
         <f>SUM(AC18:AC19)*100/$AC$28</f>
         <v>0</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="AG18" s="16">
         <v>0</v>
       </c>
-      <c r="AH18" s="85">
+      <c r="AH18" s="95">
         <f>SUM(AG18:AG19)*100/$AG$28</f>
         <v>0</v>
       </c>
@@ -2106,9 +2106,9 @@
       <c r="AK18" s="16">
         <v>1</v>
       </c>
-      <c r="AL18" s="85">
+      <c r="AL18" s="95">
         <f>SUM(AK18:AK19)*100/$AK$28</f>
-        <v>25</v>
+        <v>16.666666666666668</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2128,56 +2128,56 @@
         <f>COUNTIF($E$3:$E$63, 5)</f>
         <v>2</v>
       </c>
-      <c r="I19" s="86"/>
+      <c r="I19" s="96"/>
       <c r="L19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="M19" s="17">
         <v>0</v>
       </c>
-      <c r="N19" s="88"/>
+      <c r="N19" s="94"/>
       <c r="P19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="Q19" s="17">
         <v>0</v>
       </c>
-      <c r="R19" s="88"/>
+      <c r="R19" s="94"/>
       <c r="T19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="U19" s="17">
         <v>0</v>
       </c>
-      <c r="V19" s="86"/>
+      <c r="V19" s="96"/>
       <c r="X19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="Y19" s="17">
         <v>2</v>
       </c>
-      <c r="Z19" s="86"/>
+      <c r="Z19" s="96"/>
       <c r="AB19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AC19" s="17">
         <v>0</v>
       </c>
-      <c r="AD19" s="86"/>
+      <c r="AD19" s="96"/>
       <c r="AF19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AG19" s="17">
         <v>0</v>
       </c>
-      <c r="AH19" s="86"/>
+      <c r="AH19" s="96"/>
       <c r="AJ19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AK19" s="17">
         <v>0</v>
       </c>
-      <c r="AL19" s="86"/>
+      <c r="AL19" s="96"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2191,7 +2191,7 @@
         <f>COUNTIF($E$3:$E$63, 4)</f>
         <v>5</v>
       </c>
-      <c r="I20" s="85">
+      <c r="I20" s="95">
         <f>SUM(H20:H21)*100/$H$28</f>
         <v>25.454545454545453</v>
       </c>
@@ -2201,7 +2201,7 @@
       <c r="M20" s="16">
         <v>0</v>
       </c>
-      <c r="N20" s="87">
+      <c r="N20" s="93">
         <f>SUM(M20:M21)*100/$H$28</f>
         <v>0</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="Q20" s="16">
         <v>1</v>
       </c>
-      <c r="R20" s="87">
+      <c r="R20" s="93">
         <f>SUM(Q20:Q21)*100/$Q$28</f>
         <v>50</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="U20" s="16">
         <v>0</v>
       </c>
-      <c r="V20" s="85">
+      <c r="V20" s="95">
         <f>SUM(U20:U21)*100/$U$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="Y20" s="16">
         <v>2</v>
       </c>
-      <c r="Z20" s="85">
+      <c r="Z20" s="95">
         <f>SUM(Y20:Y21)*100/$Y$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="AC20" s="16">
         <v>2</v>
       </c>
-      <c r="AD20" s="85">
+      <c r="AD20" s="95">
         <f>SUM(AC20:AC21)*100/$AC$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="AG20" s="16">
         <v>0</v>
       </c>
-      <c r="AH20" s="85">
+      <c r="AH20" s="95">
         <f>SUM(AG20:AG21)*100/$AG$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2261,9 +2261,9 @@
       <c r="AK20" s="16">
         <v>0</v>
       </c>
-      <c r="AL20" s="85">
+      <c r="AL20" s="95">
         <f>SUM(AK20:AK21)*100/$AK$28</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2283,56 +2283,56 @@
         <f>COUNTIF($E$3:$E$63, 3)</f>
         <v>9</v>
       </c>
-      <c r="I21" s="86"/>
+      <c r="I21" s="96"/>
       <c r="L21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="M21" s="17">
         <v>0</v>
       </c>
-      <c r="N21" s="88"/>
+      <c r="N21" s="94"/>
       <c r="P21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="Q21" s="17">
         <v>2</v>
       </c>
-      <c r="R21" s="88"/>
+      <c r="R21" s="94"/>
       <c r="T21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="U21" s="17">
         <v>2</v>
       </c>
-      <c r="V21" s="86"/>
+      <c r="V21" s="96"/>
       <c r="X21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="Y21" s="17">
         <v>0</v>
       </c>
-      <c r="Z21" s="86"/>
+      <c r="Z21" s="96"/>
       <c r="AB21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="AC21" s="17">
         <v>2</v>
       </c>
-      <c r="AD21" s="86"/>
+      <c r="AD21" s="96"/>
       <c r="AF21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="AG21" s="17">
         <v>1</v>
       </c>
-      <c r="AH21" s="86"/>
+      <c r="AH21" s="96"/>
       <c r="AJ21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="AK21" s="17">
         <v>2</v>
       </c>
-      <c r="AL21" s="86"/>
+      <c r="AL21" s="96"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2351,7 +2351,7 @@
         <f>COUNTIF($E$3:$E$63, 2)</f>
         <v>10</v>
       </c>
-      <c r="I22" s="85">
+      <c r="I22" s="95">
         <f>SUM(H22:H23)*100/$H$28</f>
         <v>38.18181818181818</v>
       </c>
@@ -2361,7 +2361,7 @@
       <c r="M22" s="16">
         <v>1</v>
       </c>
-      <c r="N22" s="87">
+      <c r="N22" s="93">
         <f>SUM(M22:M23)*100/$M$28</f>
         <v>100</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="Q22" s="16">
         <v>0</v>
       </c>
-      <c r="R22" s="87">
+      <c r="R22" s="93">
         <f>SUM(Q22:Q23)*100/$Q$28</f>
         <v>0</v>
       </c>
@@ -2381,7 +2381,7 @@
       <c r="U22" s="16">
         <v>4</v>
       </c>
-      <c r="V22" s="85">
+      <c r="V22" s="95">
         <f>SUM(U22:U23)*100/$U$28</f>
         <v>66.666666666666671</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="Y22" s="16">
         <v>2</v>
       </c>
-      <c r="Z22" s="85">
+      <c r="Z22" s="95">
         <f>SUM(Y22:Y23)*100/$Y$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="AC22" s="16">
         <v>2</v>
       </c>
-      <c r="AD22" s="85">
+      <c r="AD22" s="95">
         <f>SUM(AC22:AC23)*100/$AC$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="AG22" s="16">
         <v>2</v>
       </c>
-      <c r="AH22" s="85">
+      <c r="AH22" s="95">
         <f>SUM(AG22:AG23)*100/$AG$28</f>
         <v>66.666666666666671</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="AK22" s="16">
         <v>0</v>
       </c>
-      <c r="AL22" s="85">
+      <c r="AL22" s="95">
         <f>SUM(AK22:AK23)*100/$AK$28</f>
         <v>0</v>
       </c>
@@ -2443,56 +2443,56 @@
         <f>COUNTIF($E$3:$E$63, 1)</f>
         <v>11</v>
       </c>
-      <c r="I23" s="86"/>
+      <c r="I23" s="96"/>
       <c r="L23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="M23" s="17">
         <v>1</v>
       </c>
-      <c r="N23" s="88"/>
+      <c r="N23" s="94"/>
       <c r="P23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="Q23" s="17">
         <v>0</v>
       </c>
-      <c r="R23" s="88"/>
+      <c r="R23" s="94"/>
       <c r="T23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="U23" s="17">
         <v>4</v>
       </c>
-      <c r="V23" s="86"/>
+      <c r="V23" s="96"/>
       <c r="X23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="Y23" s="17">
         <v>2</v>
       </c>
-      <c r="Z23" s="86"/>
+      <c r="Z23" s="96"/>
       <c r="AB23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="AC23" s="17">
         <v>2</v>
       </c>
-      <c r="AD23" s="86"/>
+      <c r="AD23" s="96"/>
       <c r="AF23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="AG23" s="17">
         <v>2</v>
       </c>
-      <c r="AH23" s="86"/>
+      <c r="AH23" s="96"/>
       <c r="AJ23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="AK23" s="17">
         <v>0</v>
       </c>
-      <c r="AL23" s="86"/>
+      <c r="AL23" s="96"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="G24" s="10" t="s">
@@ -2502,7 +2502,7 @@
         <f>COUNTIF($E$3:$E$63, 0)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="85">
+      <c r="I24" s="95">
         <f>SUM(H24:H25)*100/$H$28</f>
         <v>25.454545454545453</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="M24" s="16">
         <v>0</v>
       </c>
-      <c r="N24" s="87">
+      <c r="N24" s="93">
         <f>SUM(M24:M25)*100/$H$28</f>
         <v>0</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="Q24" s="16">
         <v>2</v>
       </c>
-      <c r="R24" s="87">
+      <c r="R24" s="93">
         <f>SUM(Q24:Q25)*100/$Q$28</f>
         <v>50</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="U24" s="16">
         <v>2</v>
       </c>
-      <c r="V24" s="85">
+      <c r="V24" s="95">
         <f>SUM(U24:U25)*100/$U$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="Y24" s="16">
         <v>0</v>
       </c>
-      <c r="Z24" s="85">
+      <c r="Z24" s="95">
         <f>SUM(Y24:Y25)*100/$Y$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="AC24" s="16">
         <v>2</v>
       </c>
-      <c r="AD24" s="85">
+      <c r="AD24" s="95">
         <f>SUM(AC24:AC25)*100/$AC$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="AG24" s="16">
         <v>1</v>
       </c>
-      <c r="AH24" s="85">
+      <c r="AH24" s="95">
         <f>SUM(AG24:AG25)*100/$AG$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2570,11 +2570,11 @@
         <v>63</v>
       </c>
       <c r="AK24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="85">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="95">
         <f>SUM(AK24:AK25)*100/$AK$28</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2594,56 +2594,56 @@
         <f>COUNTIF($E$3:$E$63, -1)</f>
         <v>5</v>
       </c>
-      <c r="I25" s="86"/>
+      <c r="I25" s="96"/>
       <c r="L25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="M25" s="17">
         <v>0</v>
       </c>
-      <c r="N25" s="88"/>
+      <c r="N25" s="94"/>
       <c r="P25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="Q25" s="17">
         <v>1</v>
       </c>
-      <c r="R25" s="88"/>
+      <c r="R25" s="94"/>
       <c r="T25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="U25" s="17">
         <v>0</v>
       </c>
-      <c r="V25" s="86"/>
+      <c r="V25" s="96"/>
       <c r="X25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="Y25" s="17">
         <v>2</v>
       </c>
-      <c r="Z25" s="86"/>
+      <c r="Z25" s="96"/>
       <c r="AB25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AC25" s="17">
         <v>2</v>
       </c>
-      <c r="AD25" s="86"/>
+      <c r="AD25" s="96"/>
       <c r="AF25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AG25" s="17">
         <v>0</v>
       </c>
-      <c r="AH25" s="86"/>
+      <c r="AH25" s="96"/>
       <c r="AJ25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AK25" s="17">
         <v>0</v>
       </c>
-      <c r="AL25" s="86"/>
+      <c r="AL25" s="96"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2662,7 +2662,7 @@
         <f>COUNTIF($E$3:$E$63, -2)</f>
         <v>2</v>
       </c>
-      <c r="I26" s="85">
+      <c r="I26" s="95">
         <f>SUM(H26:H27)*100/$H$28</f>
         <v>5.4545454545454541</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="M26" s="47">
         <v>0</v>
       </c>
-      <c r="N26" s="87">
+      <c r="N26" s="93">
         <f>SUM(M26:M27)*100/$H$28</f>
         <v>0</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="Q26" s="47">
         <v>0</v>
       </c>
-      <c r="R26" s="87">
+      <c r="R26" s="93">
         <f>SUM(Q26:Q27)*100/$Q$28</f>
         <v>0</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="U26" s="47">
         <v>0</v>
       </c>
-      <c r="V26" s="85">
+      <c r="V26" s="95">
         <f>SUM(U26:U27)*100/$U$28</f>
         <v>0</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="Y26" s="47">
         <v>2</v>
       </c>
-      <c r="Z26" s="85">
+      <c r="Z26" s="95">
         <f>SUM(Y26:Y27)*100/$Y$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="AC26" s="47">
         <v>0</v>
       </c>
-      <c r="AD26" s="85">
+      <c r="AD26" s="95">
         <f>SUM(AC26:AC27)*100/$AC$28</f>
         <v>0</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="AG26" s="47">
         <v>0</v>
       </c>
-      <c r="AH26" s="85">
+      <c r="AH26" s="95">
         <f>SUM(AG26:AG27)*100/$AG$28</f>
         <v>0</v>
       </c>
@@ -2732,9 +2732,9 @@
       <c r="AK26" s="47">
         <v>0</v>
       </c>
-      <c r="AL26" s="85">
+      <c r="AL26" s="95">
         <f>SUM(AK26:AK27)*100/$AK$28</f>
-        <v>25</v>
+        <v>16.666666666666668</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2754,56 +2754,56 @@
         <f>COUNTIF($E$3:$E$63, -3)</f>
         <v>1</v>
       </c>
-      <c r="I27" s="86"/>
+      <c r="I27" s="96"/>
       <c r="L27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="M27" s="48">
         <v>0</v>
       </c>
-      <c r="N27" s="88"/>
+      <c r="N27" s="94"/>
       <c r="P27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="Q27" s="48">
         <v>0</v>
       </c>
-      <c r="R27" s="88"/>
+      <c r="R27" s="94"/>
       <c r="T27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="U27" s="48">
         <v>0</v>
       </c>
-      <c r="V27" s="86"/>
+      <c r="V27" s="96"/>
       <c r="X27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="Y27" s="48">
         <v>0</v>
       </c>
-      <c r="Z27" s="86"/>
+      <c r="Z27" s="96"/>
       <c r="AB27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AC27" s="48">
         <v>0</v>
       </c>
-      <c r="AD27" s="86"/>
+      <c r="AD27" s="96"/>
       <c r="AF27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AG27" s="48">
         <v>0</v>
       </c>
-      <c r="AH27" s="86"/>
+      <c r="AH27" s="96"/>
       <c r="AJ27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AK27" s="48">
         <v>1</v>
       </c>
-      <c r="AL27" s="86"/>
+      <c r="AL27" s="96"/>
     </row>
     <row r="28" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="AK28" s="49">
         <f>SUM(AK18:AK27)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL28" s="9"/>
     </row>
@@ -2914,11 +2914,11 @@
       <c r="E31" s="20">
         <v>0</v>
       </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90" t="s">
+      <c r="G31" s="72"/>
+      <c r="H31" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="89"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2930,13 +2930,13 @@
       <c r="E32" s="20">
         <v>1</v>
       </c>
-      <c r="G32" s="91" t="s">
+      <c r="G32" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="96" t="s">
+      <c r="H32" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="92" t="s">
+      <c r="I32" s="75" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2950,11 +2950,11 @@
       <c r="E33" s="20">
         <v>2</v>
       </c>
-      <c r="G33" s="93" t="s">
+      <c r="G33" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="96"/>
-      <c r="I33" s="94" t="s">
+      <c r="H33" s="79"/>
+      <c r="I33" s="77" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2968,11 +2968,11 @@
       <c r="E34" s="20">
         <v>-1</v>
       </c>
-      <c r="G34" s="89"/>
-      <c r="H34" s="95" t="s">
+      <c r="G34" s="72"/>
+      <c r="H34" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="89"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3261,28 +3261,21 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AH26:AH27"/>
     <mergeCell ref="X16:Z16"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="N24:N25"/>
@@ -3290,33 +3283,40 @@
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R20:R21"/>
     <mergeCell ref="R22:R23"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
     <mergeCell ref="Z18:Z19"/>
     <mergeCell ref="Z20:Z21"/>
     <mergeCell ref="Z22:Z23"/>
     <mergeCell ref="Z24:Z25"/>
     <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD26:AD27"/>
     <mergeCell ref="V18:V19"/>
     <mergeCell ref="V20:V21"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="N20:N21"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="T16:V16"/>
     <mergeCell ref="V22:V23"/>
     <mergeCell ref="V24:V25"/>
     <mergeCell ref="V26:V27"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H13:I14"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="I22:I23"/>

--- a/Sunken Temple/Guardian_Game_Item_Combos.xlsx
+++ b/Sunken Temple/Guardian_Game_Item_Combos.xlsx
@@ -270,18 +270,9 @@
     <t>OUTCOME</t>
   </si>
   <si>
-    <t>RARE ITEM</t>
-  </si>
-  <si>
-    <t>STANDARD ITEM</t>
-  </si>
-  <si>
     <t>LOSE OFFERING</t>
   </si>
   <si>
-    <t>LOSE ITEM</t>
-  </si>
-  <si>
     <t>Ruby</t>
   </si>
   <si>
@@ -304,6 +295,15 @@
   </si>
   <si>
     <t>3 RANDOM GEMS</t>
+  </si>
+  <si>
+    <t>LOSE OFFERING AND  ITEM</t>
+  </si>
+  <si>
+    <t>ITEM ENHANCED</t>
+  </si>
+  <si>
+    <t>LEGENDARY ITEM (OR ENHANCED IF SMALL OFFERING)</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -801,6 +801,42 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,41 +855,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,7 +1168,7 @@
   <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="AK28" sqref="AK28"/>
+      <selection activeCell="H9" sqref="H9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,47 +1233,47 @@
         <v>6</v>
       </c>
       <c r="K3" s="37"/>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
       <c r="O3" s="45"/>
-      <c r="P3" s="85" t="s">
+      <c r="P3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="88"/>
       <c r="S3" s="45"/>
-      <c r="T3" s="85" t="s">
+      <c r="T3" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="86"/>
-      <c r="V3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="88"/>
       <c r="W3" s="45"/>
-      <c r="X3" s="85" t="s">
+      <c r="X3" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="88"/>
       <c r="AA3" s="45"/>
-      <c r="AB3" s="85" t="s">
+      <c r="AB3" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="88"/>
       <c r="AE3" s="45"/>
-      <c r="AF3" s="85" t="s">
+      <c r="AF3" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="88"/>
       <c r="AI3" s="45"/>
-      <c r="AJ3" s="85" t="s">
+      <c r="AJ3" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="88"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1276,10 +1285,10 @@
       <c r="E4" s="20">
         <v>5</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="89"/>
+      <c r="I4" s="90"/>
       <c r="K4" t="s">
         <v>13</v>
       </c>
@@ -1336,10 +1345,10 @@
       <c r="G5" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="81"/>
+      <c r="H5" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="97"/>
       <c r="K5" t="s">
         <v>32</v>
       </c>
@@ -1396,8 +1405,8 @@
       <c r="G6" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
       <c r="L6" s="22"/>
       <c r="M6" s="26"/>
       <c r="N6" s="35"/>
@@ -1451,10 +1460,10 @@
       <c r="G7" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="81"/>
+      <c r="H7" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="97"/>
       <c r="L7" s="22"/>
       <c r="M7" s="26"/>
       <c r="N7" s="35"/>
@@ -1508,8 +1517,8 @@
       <c r="G8" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="99"/>
       <c r="L8" s="22"/>
       <c r="M8" s="26"/>
       <c r="N8" s="35"/>
@@ -1563,10 +1572,10 @@
       <c r="G9" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="81"/>
+      <c r="H9" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="93"/>
       <c r="L9" s="22"/>
       <c r="M9" s="26"/>
       <c r="N9" s="35"/>
@@ -1620,8 +1629,8 @@
       <c r="G10" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
       <c r="L10" s="22"/>
       <c r="M10" s="26"/>
       <c r="N10" s="35"/>
@@ -1669,10 +1678,10 @@
       <c r="G11" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="81"/>
+      <c r="H11" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="93"/>
       <c r="L11" s="22"/>
       <c r="M11" s="26"/>
       <c r="N11" s="35"/>
@@ -1720,8 +1729,8 @@
       <c r="G12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="95"/>
       <c r="L12" s="22"/>
       <c r="M12" s="26"/>
       <c r="N12" s="35"/>
@@ -1769,10 +1778,10 @@
       <c r="G13" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="81"/>
+      <c r="H13" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="97"/>
       <c r="L13" s="22"/>
       <c r="M13" s="26"/>
       <c r="N13" s="35"/>
@@ -1820,8 +1829,8 @@
       <c r="G14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
       <c r="L14" s="22"/>
       <c r="M14" s="26"/>
       <c r="N14" s="35"/>
@@ -1910,47 +1919,47 @@
       <c r="E16" s="20">
         <v>2</v>
       </c>
-      <c r="L16" s="90" t="s">
+      <c r="L16" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="91"/>
-      <c r="N16" s="92"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="83"/>
       <c r="O16" s="46"/>
-      <c r="P16" s="90" t="s">
+      <c r="P16" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="83"/>
       <c r="S16" s="46"/>
-      <c r="T16" s="90" t="s">
+      <c r="T16" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="U16" s="91"/>
-      <c r="V16" s="92"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="46"/>
-      <c r="X16" s="90" t="s">
+      <c r="X16" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="92"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="83"/>
       <c r="AA16" s="46"/>
-      <c r="AB16" s="90" t="s">
+      <c r="AB16" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="92"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="83"/>
       <c r="AE16" s="46"/>
-      <c r="AF16" s="90" t="s">
+      <c r="AF16" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="92"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="83"/>
       <c r="AI16" s="46"/>
-      <c r="AJ16" s="90" t="s">
+      <c r="AJ16" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="AK16" s="91"/>
-      <c r="AL16" s="92"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="83"/>
     </row>
     <row r="17" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2036,7 +2045,7 @@
         <f>COUNTIF($E$3:$E$63, 6)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I18" s="79">
         <f>SUM(H18:H19)*100/$H$28</f>
         <v>5.4545454545454541</v>
       </c>
@@ -2046,7 +2055,7 @@
       <c r="M18" s="16">
         <v>0</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="84">
         <f>SUM(M18:M19)*100/$H$28</f>
         <v>0</v>
       </c>
@@ -2056,7 +2065,7 @@
       <c r="Q18" s="16">
         <v>0</v>
       </c>
-      <c r="R18" s="93">
+      <c r="R18" s="84">
         <f>SUM(Q18:Q19)*100/$Q$28</f>
         <v>0</v>
       </c>
@@ -2066,7 +2075,7 @@
       <c r="U18" s="16">
         <v>0</v>
       </c>
-      <c r="V18" s="95">
+      <c r="V18" s="79">
         <f>SUM(U18:U19)*100/$U$28</f>
         <v>0</v>
       </c>
@@ -2076,7 +2085,7 @@
       <c r="Y18" s="16">
         <v>0</v>
       </c>
-      <c r="Z18" s="95">
+      <c r="Z18" s="79">
         <f>SUM(Y18:Y19)*100/$Y$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2086,7 +2095,7 @@
       <c r="AC18" s="16">
         <v>0</v>
       </c>
-      <c r="AD18" s="95">
+      <c r="AD18" s="79">
         <f>SUM(AC18:AC19)*100/$AC$28</f>
         <v>0</v>
       </c>
@@ -2096,7 +2105,7 @@
       <c r="AG18" s="16">
         <v>0</v>
       </c>
-      <c r="AH18" s="95">
+      <c r="AH18" s="79">
         <f>SUM(AG18:AG19)*100/$AG$28</f>
         <v>0</v>
       </c>
@@ -2106,7 +2115,7 @@
       <c r="AK18" s="16">
         <v>1</v>
       </c>
-      <c r="AL18" s="95">
+      <c r="AL18" s="79">
         <f>SUM(AK18:AK19)*100/$AK$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2128,56 +2137,56 @@
         <f>COUNTIF($E$3:$E$63, 5)</f>
         <v>2</v>
       </c>
-      <c r="I19" s="96"/>
+      <c r="I19" s="80"/>
       <c r="L19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="M19" s="17">
         <v>0</v>
       </c>
-      <c r="N19" s="94"/>
+      <c r="N19" s="85"/>
       <c r="P19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="Q19" s="17">
         <v>0</v>
       </c>
-      <c r="R19" s="94"/>
+      <c r="R19" s="85"/>
       <c r="T19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="U19" s="17">
         <v>0</v>
       </c>
-      <c r="V19" s="96"/>
+      <c r="V19" s="80"/>
       <c r="X19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="Y19" s="17">
         <v>2</v>
       </c>
-      <c r="Z19" s="96"/>
+      <c r="Z19" s="80"/>
       <c r="AB19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AC19" s="17">
         <v>0</v>
       </c>
-      <c r="AD19" s="96"/>
+      <c r="AD19" s="80"/>
       <c r="AF19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AG19" s="17">
         <v>0</v>
       </c>
-      <c r="AH19" s="96"/>
+      <c r="AH19" s="80"/>
       <c r="AJ19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AK19" s="17">
         <v>0</v>
       </c>
-      <c r="AL19" s="96"/>
+      <c r="AL19" s="80"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2191,7 +2200,7 @@
         <f>COUNTIF($E$3:$E$63, 4)</f>
         <v>5</v>
       </c>
-      <c r="I20" s="95">
+      <c r="I20" s="79">
         <f>SUM(H20:H21)*100/$H$28</f>
         <v>25.454545454545453</v>
       </c>
@@ -2201,7 +2210,7 @@
       <c r="M20" s="16">
         <v>0</v>
       </c>
-      <c r="N20" s="93">
+      <c r="N20" s="84">
         <f>SUM(M20:M21)*100/$H$28</f>
         <v>0</v>
       </c>
@@ -2211,7 +2220,7 @@
       <c r="Q20" s="16">
         <v>1</v>
       </c>
-      <c r="R20" s="93">
+      <c r="R20" s="84">
         <f>SUM(Q20:Q21)*100/$Q$28</f>
         <v>50</v>
       </c>
@@ -2221,7 +2230,7 @@
       <c r="U20" s="16">
         <v>0</v>
       </c>
-      <c r="V20" s="95">
+      <c r="V20" s="79">
         <f>SUM(U20:U21)*100/$U$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2231,7 +2240,7 @@
       <c r="Y20" s="16">
         <v>2</v>
       </c>
-      <c r="Z20" s="95">
+      <c r="Z20" s="79">
         <f>SUM(Y20:Y21)*100/$Y$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2241,7 +2250,7 @@
       <c r="AC20" s="16">
         <v>2</v>
       </c>
-      <c r="AD20" s="95">
+      <c r="AD20" s="79">
         <f>SUM(AC20:AC21)*100/$AC$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2251,7 +2260,7 @@
       <c r="AG20" s="16">
         <v>0</v>
       </c>
-      <c r="AH20" s="95">
+      <c r="AH20" s="79">
         <f>SUM(AG20:AG21)*100/$AG$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2261,7 +2270,7 @@
       <c r="AK20" s="16">
         <v>0</v>
       </c>
-      <c r="AL20" s="95">
+      <c r="AL20" s="79">
         <f>SUM(AK20:AK21)*100/$AK$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2283,56 +2292,56 @@
         <f>COUNTIF($E$3:$E$63, 3)</f>
         <v>9</v>
       </c>
-      <c r="I21" s="96"/>
+      <c r="I21" s="80"/>
       <c r="L21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="M21" s="17">
         <v>0</v>
       </c>
-      <c r="N21" s="94"/>
+      <c r="N21" s="85"/>
       <c r="P21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="Q21" s="17">
         <v>2</v>
       </c>
-      <c r="R21" s="94"/>
+      <c r="R21" s="85"/>
       <c r="T21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="U21" s="17">
         <v>2</v>
       </c>
-      <c r="V21" s="96"/>
+      <c r="V21" s="80"/>
       <c r="X21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="Y21" s="17">
         <v>0</v>
       </c>
-      <c r="Z21" s="96"/>
+      <c r="Z21" s="80"/>
       <c r="AB21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="AC21" s="17">
         <v>2</v>
       </c>
-      <c r="AD21" s="96"/>
+      <c r="AD21" s="80"/>
       <c r="AF21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="AG21" s="17">
         <v>1</v>
       </c>
-      <c r="AH21" s="96"/>
+      <c r="AH21" s="80"/>
       <c r="AJ21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="AK21" s="17">
         <v>2</v>
       </c>
-      <c r="AL21" s="96"/>
+      <c r="AL21" s="80"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2351,7 +2360,7 @@
         <f>COUNTIF($E$3:$E$63, 2)</f>
         <v>10</v>
       </c>
-      <c r="I22" s="95">
+      <c r="I22" s="79">
         <f>SUM(H22:H23)*100/$H$28</f>
         <v>38.18181818181818</v>
       </c>
@@ -2361,7 +2370,7 @@
       <c r="M22" s="16">
         <v>1</v>
       </c>
-      <c r="N22" s="93">
+      <c r="N22" s="84">
         <f>SUM(M22:M23)*100/$M$28</f>
         <v>100</v>
       </c>
@@ -2371,7 +2380,7 @@
       <c r="Q22" s="16">
         <v>0</v>
       </c>
-      <c r="R22" s="93">
+      <c r="R22" s="84">
         <f>SUM(Q22:Q23)*100/$Q$28</f>
         <v>0</v>
       </c>
@@ -2381,7 +2390,7 @@
       <c r="U22" s="16">
         <v>4</v>
       </c>
-      <c r="V22" s="95">
+      <c r="V22" s="79">
         <f>SUM(U22:U23)*100/$U$28</f>
         <v>66.666666666666671</v>
       </c>
@@ -2391,7 +2400,7 @@
       <c r="Y22" s="16">
         <v>2</v>
       </c>
-      <c r="Z22" s="95">
+      <c r="Z22" s="79">
         <f>SUM(Y22:Y23)*100/$Y$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2401,7 +2410,7 @@
       <c r="AC22" s="16">
         <v>2</v>
       </c>
-      <c r="AD22" s="95">
+      <c r="AD22" s="79">
         <f>SUM(AC22:AC23)*100/$AC$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2411,7 +2420,7 @@
       <c r="AG22" s="16">
         <v>2</v>
       </c>
-      <c r="AH22" s="95">
+      <c r="AH22" s="79">
         <f>SUM(AG22:AG23)*100/$AG$28</f>
         <v>66.666666666666671</v>
       </c>
@@ -2421,7 +2430,7 @@
       <c r="AK22" s="16">
         <v>0</v>
       </c>
-      <c r="AL22" s="95">
+      <c r="AL22" s="79">
         <f>SUM(AK22:AK23)*100/$AK$28</f>
         <v>0</v>
       </c>
@@ -2443,56 +2452,56 @@
         <f>COUNTIF($E$3:$E$63, 1)</f>
         <v>11</v>
       </c>
-      <c r="I23" s="96"/>
+      <c r="I23" s="80"/>
       <c r="L23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="M23" s="17">
         <v>1</v>
       </c>
-      <c r="N23" s="94"/>
+      <c r="N23" s="85"/>
       <c r="P23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="Q23" s="17">
         <v>0</v>
       </c>
-      <c r="R23" s="94"/>
+      <c r="R23" s="85"/>
       <c r="T23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="U23" s="17">
         <v>4</v>
       </c>
-      <c r="V23" s="96"/>
+      <c r="V23" s="80"/>
       <c r="X23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="Y23" s="17">
         <v>2</v>
       </c>
-      <c r="Z23" s="96"/>
+      <c r="Z23" s="80"/>
       <c r="AB23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="AC23" s="17">
         <v>2</v>
       </c>
-      <c r="AD23" s="96"/>
+      <c r="AD23" s="80"/>
       <c r="AF23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="AG23" s="17">
         <v>2</v>
       </c>
-      <c r="AH23" s="96"/>
+      <c r="AH23" s="80"/>
       <c r="AJ23" s="18" t="s">
         <v>57</v>
       </c>
       <c r="AK23" s="17">
         <v>0</v>
       </c>
-      <c r="AL23" s="96"/>
+      <c r="AL23" s="80"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="G24" s="10" t="s">
@@ -2502,7 +2511,7 @@
         <f>COUNTIF($E$3:$E$63, 0)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="95">
+      <c r="I24" s="79">
         <f>SUM(H24:H25)*100/$H$28</f>
         <v>25.454545454545453</v>
       </c>
@@ -2512,7 +2521,7 @@
       <c r="M24" s="16">
         <v>0</v>
       </c>
-      <c r="N24" s="93">
+      <c r="N24" s="84">
         <f>SUM(M24:M25)*100/$H$28</f>
         <v>0</v>
       </c>
@@ -2522,7 +2531,7 @@
       <c r="Q24" s="16">
         <v>2</v>
       </c>
-      <c r="R24" s="93">
+      <c r="R24" s="84">
         <f>SUM(Q24:Q25)*100/$Q$28</f>
         <v>50</v>
       </c>
@@ -2532,7 +2541,7 @@
       <c r="U24" s="16">
         <v>2</v>
       </c>
-      <c r="V24" s="95">
+      <c r="V24" s="79">
         <f>SUM(U24:U25)*100/$U$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2542,7 +2551,7 @@
       <c r="Y24" s="16">
         <v>0</v>
       </c>
-      <c r="Z24" s="95">
+      <c r="Z24" s="79">
         <f>SUM(Y24:Y25)*100/$Y$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2552,7 +2561,7 @@
       <c r="AC24" s="16">
         <v>2</v>
       </c>
-      <c r="AD24" s="95">
+      <c r="AD24" s="79">
         <f>SUM(AC24:AC25)*100/$AC$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2562,7 +2571,7 @@
       <c r="AG24" s="16">
         <v>1</v>
       </c>
-      <c r="AH24" s="95">
+      <c r="AH24" s="79">
         <f>SUM(AG24:AG25)*100/$AG$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2572,7 +2581,7 @@
       <c r="AK24" s="16">
         <v>2</v>
       </c>
-      <c r="AL24" s="95">
+      <c r="AL24" s="79">
         <f>SUM(AK24:AK25)*100/$AK$28</f>
         <v>33.333333333333336</v>
       </c>
@@ -2594,56 +2603,56 @@
         <f>COUNTIF($E$3:$E$63, -1)</f>
         <v>5</v>
       </c>
-      <c r="I25" s="96"/>
+      <c r="I25" s="80"/>
       <c r="L25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="M25" s="17">
         <v>0</v>
       </c>
-      <c r="N25" s="94"/>
+      <c r="N25" s="85"/>
       <c r="P25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="Q25" s="17">
         <v>1</v>
       </c>
-      <c r="R25" s="94"/>
+      <c r="R25" s="85"/>
       <c r="T25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="U25" s="17">
         <v>0</v>
       </c>
-      <c r="V25" s="96"/>
+      <c r="V25" s="80"/>
       <c r="X25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="Y25" s="17">
         <v>2</v>
       </c>
-      <c r="Z25" s="96"/>
+      <c r="Z25" s="80"/>
       <c r="AB25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AC25" s="17">
         <v>2</v>
       </c>
-      <c r="AD25" s="96"/>
+      <c r="AD25" s="80"/>
       <c r="AF25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AG25" s="17">
         <v>0</v>
       </c>
-      <c r="AH25" s="96"/>
+      <c r="AH25" s="80"/>
       <c r="AJ25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AK25" s="17">
         <v>0</v>
       </c>
-      <c r="AL25" s="96"/>
+      <c r="AL25" s="80"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2662,7 +2671,7 @@
         <f>COUNTIF($E$3:$E$63, -2)</f>
         <v>2</v>
       </c>
-      <c r="I26" s="95">
+      <c r="I26" s="79">
         <f>SUM(H26:H27)*100/$H$28</f>
         <v>5.4545454545454541</v>
       </c>
@@ -2672,7 +2681,7 @@
       <c r="M26" s="47">
         <v>0</v>
       </c>
-      <c r="N26" s="93">
+      <c r="N26" s="84">
         <f>SUM(M26:M27)*100/$H$28</f>
         <v>0</v>
       </c>
@@ -2682,7 +2691,7 @@
       <c r="Q26" s="47">
         <v>0</v>
       </c>
-      <c r="R26" s="93">
+      <c r="R26" s="84">
         <f>SUM(Q26:Q27)*100/$Q$28</f>
         <v>0</v>
       </c>
@@ -2692,7 +2701,7 @@
       <c r="U26" s="47">
         <v>0</v>
       </c>
-      <c r="V26" s="95">
+      <c r="V26" s="79">
         <f>SUM(U26:U27)*100/$U$28</f>
         <v>0</v>
       </c>
@@ -2702,7 +2711,7 @@
       <c r="Y26" s="47">
         <v>2</v>
       </c>
-      <c r="Z26" s="95">
+      <c r="Z26" s="79">
         <f>SUM(Y26:Y27)*100/$Y$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2712,7 +2721,7 @@
       <c r="AC26" s="47">
         <v>0</v>
       </c>
-      <c r="AD26" s="95">
+      <c r="AD26" s="79">
         <f>SUM(AC26:AC27)*100/$AC$28</f>
         <v>0</v>
       </c>
@@ -2722,7 +2731,7 @@
       <c r="AG26" s="47">
         <v>0</v>
       </c>
-      <c r="AH26" s="95">
+      <c r="AH26" s="79">
         <f>SUM(AG26:AG27)*100/$AG$28</f>
         <v>0</v>
       </c>
@@ -2732,7 +2741,7 @@
       <c r="AK26" s="47">
         <v>0</v>
       </c>
-      <c r="AL26" s="95">
+      <c r="AL26" s="79">
         <f>SUM(AK26:AK27)*100/$AK$28</f>
         <v>16.666666666666668</v>
       </c>
@@ -2754,56 +2763,56 @@
         <f>COUNTIF($E$3:$E$63, -3)</f>
         <v>1</v>
       </c>
-      <c r="I27" s="96"/>
+      <c r="I27" s="80"/>
       <c r="L27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="M27" s="48">
         <v>0</v>
       </c>
-      <c r="N27" s="94"/>
+      <c r="N27" s="85"/>
       <c r="P27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="Q27" s="48">
         <v>0</v>
       </c>
-      <c r="R27" s="94"/>
+      <c r="R27" s="85"/>
       <c r="T27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="U27" s="48">
         <v>0</v>
       </c>
-      <c r="V27" s="96"/>
+      <c r="V27" s="80"/>
       <c r="X27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="Y27" s="48">
         <v>0</v>
       </c>
-      <c r="Z27" s="96"/>
+      <c r="Z27" s="80"/>
       <c r="AB27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AC27" s="48">
         <v>0</v>
       </c>
-      <c r="AD27" s="96"/>
+      <c r="AD27" s="80"/>
       <c r="AF27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AG27" s="48">
         <v>0</v>
       </c>
-      <c r="AH27" s="96"/>
+      <c r="AH27" s="80"/>
       <c r="AJ27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AK27" s="48">
         <v>1</v>
       </c>
-      <c r="AL27" s="96"/>
+      <c r="AL27" s="80"/>
     </row>
     <row r="28" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2916,7 +2925,7 @@
       </c>
       <c r="G31" s="72"/>
       <c r="H31" s="73" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I31" s="72"/>
     </row>
@@ -2931,13 +2940,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="79" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="H32" s="91" t="s">
+        <v>91</v>
       </c>
       <c r="I32" s="75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2951,11 +2960,11 @@
         <v>2</v>
       </c>
       <c r="G33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="79"/>
+        <v>88</v>
+      </c>
+      <c r="H33" s="91"/>
       <c r="I33" s="77" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2970,7 +2979,7 @@
       </c>
       <c r="G34" s="72"/>
       <c r="H34" s="78" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I34" s="72"/>
     </row>
@@ -3261,21 +3270,36 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V27"/>
     <mergeCell ref="X16:Z16"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="N24:N25"/>
@@ -3292,36 +3316,21 @@
     <mergeCell ref="V20:V21"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="N20:N21"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AD26:AD27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
